--- a/Receipt_For_SelvarajGroupOfCompanies.xlsx
+++ b/Receipt_For_SelvarajGroupOfCompanies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fisglobal-my.sharepoint.com/personal/hemalatha_jayabalan_fisglobal_com/Documents/e3024537_Backup/D_Drive/Hema's/SVT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e3024537\OneDrive - FIS\e3024537_Backup\D_Drive\Hema's\SVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="914" documentId="13_ncr:1_{818DFE12-22B0-4CBB-ACB0-1713AD4C1D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82F7901E-5879-4D86-A249-3FDDC335E994}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48BE858-DE57-4E71-A856-E339ACC4183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Local!$A$5:$S$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Outstation!$F$1:$F$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="247">
   <si>
     <t>SL</t>
   </si>
@@ -730,13 +731,6 @@
     <t>Office</t>
   </si>
   <si>
-    <t>Rupees Five Lakhs Sixty Three Thousand Nine Hundred Ninety Two Only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/S Selvaraj Group of Companies
-</t>
-  </si>
-  <si>
     <t>Receipt for Local Usage</t>
   </si>
   <si>
@@ -761,16 +755,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>GST 5%</t>
-  </si>
-  <si>
     <t>Less Advance</t>
   </si>
   <si>
     <t>Balance</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
   </si>
   <si>
     <t>Local</t>
@@ -782,6 +770,19 @@
     <t>Sri Venkateswara Travels
 R.Balamurugan
 GSTIN: 33BESPV7542D1Z3</t>
+  </si>
+  <si>
+    <t>TN02AT8689</t>
+  </si>
+  <si>
+    <t>3:00AM</t>
+  </si>
+  <si>
+    <t>Rupees Five Lakhs Fourteen Thousand Nine Hundred Ninety Two Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/S Selvaraj Group Of Companies
+</t>
   </si>
 </sst>
 </file>
@@ -835,12 +836,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -1031,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1128,6 +1135,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1480,7 +1517,7 @@
   <dimension ref="B1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1506,66 +1543,66 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="36"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="39"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="39"/>
+      <c r="B4" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -3643,20 +3680,20 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="45"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="55"/>
       <c r="M47" s="4"/>
       <c r="N47" s="19"/>
-      <c r="O47" s="33" t="s">
+      <c r="O47" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="33"/>
+      <c r="P47" s="43"/>
       <c r="Q47" s="31">
         <f>SUM(Q6:Q46)</f>
         <v>189777</v>
@@ -3707,10 +3744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:T89"/>
+  <dimension ref="B1:T87"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:R4"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -3737,69 +3774,69 @@
   <sheetData>
     <row r="1" spans="2:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="2:18" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38" t="s">
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="49"/>
+    </row>
+    <row r="4" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="39"/>
-    </row>
-    <row r="4" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="39"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="49"/>
     </row>
     <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -4413,7 +4450,7 @@
         <v>45314</v>
       </c>
       <c r="D16" s="25">
-        <v>45315</v>
+        <v>45314</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>123</v>
@@ -4425,7 +4462,7 @@
         <v>200</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="I16" s="9">
         <v>160</v>
@@ -4434,7 +4471,7 @@
         <v>52</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L16" s="27" t="s">
         <v>47</v>
@@ -4446,8 +4483,8 @@
         <v>205</v>
       </c>
       <c r="O16" s="27">
-        <f>600*35</f>
-        <v>21000</v>
+        <f>300*35</f>
+        <v>10500</v>
       </c>
       <c r="P16" s="14">
         <v>1600</v>
@@ -4457,7 +4494,7 @@
       </c>
       <c r="R16" s="23">
         <f t="shared" si="0"/>
-        <v>22800</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -4468,7 +4505,7 @@
         <v>45314</v>
       </c>
       <c r="D17" s="25">
-        <v>45315</v>
+        <v>45314</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>123</v>
@@ -4480,7 +4517,7 @@
         <v>201</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="I17" s="9">
         <v>172</v>
@@ -4489,7 +4526,7 @@
         <v>52</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>47</v>
@@ -4501,8 +4538,8 @@
         <v>205</v>
       </c>
       <c r="O17" s="27">
-        <f>600*35</f>
-        <v>21000</v>
+        <f>300*35</f>
+        <v>10500</v>
       </c>
       <c r="P17" s="14">
         <v>1600</v>
@@ -4512,7 +4549,7 @@
       </c>
       <c r="R17" s="23">
         <f t="shared" si="0"/>
-        <v>22800</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -4636,7 +4673,7 @@
         <v>45314</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>18</v>
@@ -4966,7 +5003,7 @@
         <v>45315</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>18</v>
@@ -5082,7 +5119,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>117</v>
@@ -5406,7 +5443,7 @@
         <v>45315</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>18</v>
@@ -5788,7 +5825,7 @@
         <v>45314</v>
       </c>
       <c r="D41" s="25">
-        <v>45315</v>
+        <v>45314</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>127</v>
@@ -5800,7 +5837,7 @@
         <v>88</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="I41" s="9">
         <v>157</v>
@@ -5809,7 +5846,7 @@
         <v>38</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>47</v>
@@ -5821,8 +5858,8 @@
         <v>194</v>
       </c>
       <c r="O41" s="27">
-        <f>500*28</f>
-        <v>14000</v>
+        <f>250*28</f>
+        <v>7000</v>
       </c>
       <c r="P41" s="14">
         <v>1600</v>
@@ -5832,7 +5869,7 @@
       </c>
       <c r="R41" s="23">
         <f t="shared" si="0"/>
-        <v>15694</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -6055,59 +6092,59 @@
         <v>8705</v>
       </c>
     </row>
-    <row r="46" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="20">
+    <row r="46" spans="2:18" s="41" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="33">
         <v>41</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="34">
         <v>45314</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="34">
         <v>45315</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I46" s="9">
+      <c r="H46" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" s="36">
         <v>170</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="K46" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L46" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M46" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N46" s="27" t="s">
+      <c r="K46" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="O46" s="27">
-        <f>600*35</f>
-        <v>21000</v>
-      </c>
-      <c r="P46" s="14">
+      <c r="O46" s="42">
+        <f>300*35</f>
+        <v>10500</v>
+      </c>
+      <c r="P46" s="39">
         <v>1600</v>
       </c>
-      <c r="Q46" s="9">
+      <c r="Q46" s="36">
         <v>200</v>
       </c>
-      <c r="R46" s="23">
-        <f t="shared" si="0"/>
-        <v>22800</v>
+      <c r="R46" s="40">
+        <f t="shared" si="0"/>
+        <v>12300</v>
       </c>
     </row>
     <row r="47" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -6165,59 +6202,59 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="20">
+    <row r="48" spans="2:18" s="41" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="33">
         <v>43</v>
       </c>
-      <c r="C48" s="25">
+      <c r="C48" s="34">
         <v>45314</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="34">
         <v>45315</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I48" s="9">
+      <c r="H48" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I48" s="36">
         <v>168</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L48" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N48" s="27" t="s">
+      <c r="K48" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="L48" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N48" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="O48" s="27">
-        <f>600*35</f>
-        <v>21000</v>
-      </c>
-      <c r="P48" s="14">
+      <c r="O48" s="42">
+        <f>300*35</f>
+        <v>10500</v>
+      </c>
+      <c r="P48" s="39">
         <v>1600</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="Q48" s="36">
         <v>200</v>
       </c>
-      <c r="R48" s="23">
-        <f t="shared" si="0"/>
-        <v>22800</v>
+      <c r="R48" s="40">
+        <f t="shared" si="0"/>
+        <v>12300</v>
       </c>
     </row>
     <row r="49" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -7806,23 +7843,23 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="45"/>
+      <c r="H79" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="55"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-      <c r="P79" s="33" t="s">
+      <c r="P79" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q79" s="33"/>
+      <c r="Q79" s="43"/>
       <c r="R79" s="31">
         <f>SUM(R6:R78)</f>
-        <v>563992</v>
+        <v>514992</v>
       </c>
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
@@ -7851,77 +7888,59 @@
       <c r="D81" s="13"/>
     </row>
     <row r="83" spans="3:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P83" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q83" s="46"/>
+      <c r="P83" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q83" s="56"/>
       <c r="R83" s="30">
         <v>189777</v>
       </c>
     </row>
     <row r="84" spans="3:18" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P84" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q84" s="46"/>
-      <c r="R84" s="30">
-        <v>563992</v>
+      <c r="P84" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="19">
+        <f>R79</f>
+        <v>514992</v>
       </c>
     </row>
     <row r="85" spans="3:18" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P85" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q85" s="46"/>
+      <c r="P85" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q85" s="56"/>
       <c r="R85" s="30">
         <f>R83+R84</f>
-        <v>753769</v>
-      </c>
-    </row>
-    <row r="86" spans="3:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P86" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q86" s="46"/>
+        <v>704769</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L86" s="32"/>
+      <c r="P86" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q86" s="56"/>
       <c r="R86" s="30">
-        <f>R85*5%</f>
-        <v>37688.450000000004</v>
-      </c>
-    </row>
-    <row r="87" spans="3:18" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P87" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q87" s="46"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P87" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q87" s="56"/>
       <c r="R87" s="30">
-        <f>R85+R86</f>
-        <v>791457.45</v>
-      </c>
-    </row>
-    <row r="88" spans="3:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L88" s="32"/>
-      <c r="P88" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q88" s="46"/>
-      <c r="R88" s="30">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="89" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P89" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q89" s="46"/>
-      <c r="R89" s="30">
-        <f>R87-R88</f>
-        <v>591457.44999999995</v>
+        <f>R85-R86</f>
+        <v>304769</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="P89:Q89"/>
+  <autoFilter ref="F1:F87" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="12">
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
     <mergeCell ref="P79:Q79"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="C3:G3"/>
@@ -7932,8 +7951,6 @@
     <mergeCell ref="P83:Q83"/>
     <mergeCell ref="P84:Q84"/>
     <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Receipt_For_SelvarajGroupOfCompanies.xlsx
+++ b/Receipt_For_SelvarajGroupOfCompanies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e3024537\OneDrive - FIS\e3024537_Backup\D_Drive\Hema's\SVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48BE858-DE57-4E71-A856-E339ACC4183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B1575B-5EE6-4E85-859A-1F66A75A1B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Local" sheetId="1" r:id="rId1"/>
@@ -836,18 +836,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -1136,36 +1130,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1207,6 +1171,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1516,7 +1510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1543,66 +1537,66 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="49"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="49"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -3680,20 +3674,20 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="53" t="s">
+      <c r="G47" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="55"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="45"/>
       <c r="M47" s="4"/>
       <c r="N47" s="19"/>
-      <c r="O47" s="43" t="s">
+      <c r="O47" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="43"/>
+      <c r="P47" s="33"/>
       <c r="Q47" s="31">
         <f>SUM(Q6:Q46)</f>
         <v>189777</v>
@@ -3746,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:T87"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:R3"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -3774,69 +3768,69 @@
   <sheetData>
     <row r="1" spans="2:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
     </row>
     <row r="3" spans="2:18" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="47" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="49"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="39"/>
     </row>
     <row r="4" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="49"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="39"/>
     </row>
     <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -6092,57 +6086,57 @@
         <v>8705</v>
       </c>
     </row>
-    <row r="46" spans="2:18" s="41" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="33">
+    <row r="46" spans="2:18" s="56" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="47">
         <v>41</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="48">
         <v>45314</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="48">
         <v>45315</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="G46" s="35" t="s">
+      <c r="G46" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="H46" s="36" t="s">
+      <c r="H46" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="50">
         <v>170</v>
       </c>
-      <c r="J46" s="37" t="s">
+      <c r="J46" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="K46" s="38" t="s">
+      <c r="K46" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="L46" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="M46" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="N46" s="42" t="s">
+      <c r="L46" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="O46" s="42">
+      <c r="O46" s="54">
         <f>300*35</f>
         <v>10500</v>
       </c>
-      <c r="P46" s="39">
+      <c r="P46" s="53">
         <v>1600</v>
       </c>
-      <c r="Q46" s="36">
+      <c r="Q46" s="50">
         <v>200</v>
       </c>
-      <c r="R46" s="40">
+      <c r="R46" s="55">
         <f t="shared" si="0"/>
         <v>12300</v>
       </c>
@@ -6202,57 +6196,57 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" s="41" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="33">
+    <row r="48" spans="2:18" s="56" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="47">
         <v>43</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="48">
         <v>45314</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="48">
         <v>45315</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="35" t="s">
+      <c r="G48" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H48" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="50">
         <v>168</v>
       </c>
-      <c r="J48" s="36" t="s">
+      <c r="J48" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="38" t="s">
+      <c r="K48" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="L48" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="M48" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="N48" s="42" t="s">
+      <c r="L48" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="N48" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="O48" s="42">
+      <c r="O48" s="54">
         <f>300*35</f>
         <v>10500</v>
       </c>
-      <c r="P48" s="39">
+      <c r="P48" s="53">
         <v>1600</v>
       </c>
-      <c r="Q48" s="36">
+      <c r="Q48" s="50">
         <v>200</v>
       </c>
-      <c r="R48" s="40">
+      <c r="R48" s="55">
         <f t="shared" si="0"/>
         <v>12300</v>
       </c>
@@ -7843,20 +7837,20 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="53" t="s">
+      <c r="H79" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="55"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="45"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-      <c r="P79" s="43" t="s">
+      <c r="P79" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q79" s="43"/>
+      <c r="Q79" s="33"/>
       <c r="R79" s="31">
         <f>SUM(R6:R78)</f>
         <v>514992</v>
@@ -7888,29 +7882,29 @@
       <c r="D81" s="13"/>
     </row>
     <row r="83" spans="3:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P83" s="56" t="s">
+      <c r="P83" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="Q83" s="56"/>
+      <c r="Q83" s="46"/>
       <c r="R83" s="30">
         <v>189777</v>
       </c>
     </row>
     <row r="84" spans="3:18" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P84" s="56" t="s">
+      <c r="P84" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="Q84" s="56"/>
+      <c r="Q84" s="46"/>
       <c r="R84" s="19">
         <f>R79</f>
         <v>514992</v>
       </c>
     </row>
     <row r="85" spans="3:18" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P85" s="56" t="s">
+      <c r="P85" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="Q85" s="56"/>
+      <c r="Q85" s="46"/>
       <c r="R85" s="30">
         <f>R83+R84</f>
         <v>704769</v>
@@ -7918,19 +7912,19 @@
     </row>
     <row r="86" spans="3:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L86" s="32"/>
-      <c r="P86" s="56" t="s">
+      <c r="P86" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="Q86" s="56"/>
+      <c r="Q86" s="46"/>
       <c r="R86" s="30">
         <v>400000</v>
       </c>
     </row>
     <row r="87" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P87" s="56" t="s">
+      <c r="P87" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="Q87" s="56"/>
+      <c r="Q87" s="46"/>
       <c r="R87" s="30">
         <f>R85-R86</f>
         <v>304769</v>
